--- a/jian_sandbox/Statistics.xlsx
+++ b/jian_sandbox/Statistics.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianmeng/Desktop/EEE598RL/DronePathPlanning_EEE598/jian_sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBEE68-9637-E94A-8A51-892B33CEBB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB73BE-AD5E-0C47-B8B5-D7DD99F0EB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{EF5612EF-52F2-1540-8800-D5189EACAA9A}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EF5612EF-52F2-1540-8800-D5189EACAA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxIter=500" sheetId="1" r:id="rId1"/>
     <sheet name="MaxIter=1000" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>alpha_low</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>Boltzman</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,18 +127,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -453,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3A3A36-B14A-934F-BF06-76DFC010D37D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADC6E10-850F-0842-A34B-599B091E7637}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,7 +590,7 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,8 +612,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -621,6 +639,26 @@
       <c r="G2" s="1">
         <f>STDEV(C2:E2)</f>
         <v>4.358898943540674</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
